--- a/biology/Origine et évolution du vivant/Taxonomie_des_Gastropoda_(Bouchet_&_Rocroi,_2005)/Taxonomie_des_Gastropoda_(Bouchet_&_Rocroi,_2005).xlsx
+++ b/biology/Origine et évolution du vivant/Taxonomie_des_Gastropoda_(Bouchet_&_Rocroi,_2005)/Taxonomie_des_Gastropoda_(Bouchet_&_Rocroi,_2005).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Taxonomie_des_Gastropoda_(Bouchet_%26_Rocroi,_2005)</t>
+          <t>Taxonomie_des_Gastropoda_(Bouchet_&amp;_Rocroi,_2005)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Taxonomie des Gastropoda de 2005 est la dernière version actualisée de la taxonomie des gastéropodes mise à jour par les zoologistes et malacologistes français Philippe Bouchet et Jean-Pierre Rocroi (en). Cette taxonomie est une étape supplémentaire dans le sens de la taxonomie phylogénétique.
 La taxonomie phylogénétique présente les lignées à partir d'une proximité morphologique (taxon) et selon l'analyse statistique des caractéristiques génétiques moléculaires. Divers taxons sont encore sans nom. Pour les groupes d'animaux avec des taxons sans nom, aucune monophylie n'a pour l'instant permis de les classer par des études génétiques ou par la connaissance de la paraphylie de groupes ou d'un de leurs sous-groupes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Taxonomie_des_Gastropoda_(Bouchet_%26_Rocroi,_2005)</t>
+          <t>Taxonomie_des_Gastropoda_(Bouchet_&amp;_Rocroi,_2005)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2005, Philippe Bouchet et Jean-Pierre Rocroi publient une nouvelle taxonomie des gastréropodes dans le journal Malacologia, qui devient la classification de référence sur la classe des Gastropoda.
 La taxonomie des Gastropoda est un système de classification scientifique des gastéropodes mollusques. Les gastéropodes constituent une classe taxonomique d'animaux qui se compose d'escargots et de limaces de toute nature, vivants sur terre ou bien dans l'eau douce et dans l'eau salée. Le protocole fixant cette taxonomie a été publié dans la revue Malacologia. Le système englobe toutes les familles connues de limaces et d'escargots vivants, et aussi des fossiles de gastéropodes (y compris certains groupes de fossiles qui peuvent ou non avoir été des gastéropodes).
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Taxonomie_des_Gastropoda_(Bouchet_%26_Rocroi,_2005)</t>
+          <t>Taxonomie_des_Gastropoda_(Bouchet_&amp;_Rocroi,_2005)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Clades principaux, groupes et groupes informels</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les informations sont affichées sous la forme d'une arborescence ou cladogramme. Cependant cette classification est provisoire, un grand nombre de taxons sont encore seulement connus comme «groupes» ou « groupes informels », et ils sont très susceptibles d'être changé selon l'évolution des recherches et des nouvelles informations disponibles.
 Mollusques paléozoïque de position systématique incertaine
@@ -604,7 +620,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Taxonomie_des_Gastropoda_(Bouchet_%26_Rocroi,_2005)</t>
+          <t>Taxonomie_des_Gastropoda_(Bouchet_&amp;_Rocroi,_2005)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -622,7 +638,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gastropoda (classification phylogénétique)
 Histoire évolutive des gastéropodes</t>
